--- a/DOM_Banner/output/dept_banner/Anil Kumar Potharaju_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Anil Kumar Potharaju_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,347 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Armaan Dhaliwal, Soumiya Ravi, Kanwal Bains, Anil Potharaju, Tasneem Shah</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221107739</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>The enigma of persistent hypertriglyceridemia: A case report</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5003953024", "https://openalex.org/A5045391685", "https://openalex.org/A5009352959", "https://openalex.org/A5041320336", "https://openalex.org/A5084432801"), au_display_name = c("Armaan Dhaliwal", "Soumiya Ravi", "Kanwal Bains", "Anil Potharaju", "Tasneem Shah"), au_orcid = c("https://orcid.org/0000-0003-2592-9214", NA, NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "last"), au_affiliation_raw = c("University of Arizona College of Medicine at South Campus, Tucson, Arizona, USA", 
-"&lt;idGroup xmlns=\"http://www.wiley.com/namespaces/wiley\"&gt; &lt;id type=\"ringgold\" value=\"29761\"&gt;&lt;/id&gt; &lt;/idGroup&gt; Dayanand Medical College and Hospital Ludhiana India", "Roger Williams Medical Center, Providence, Rhode Island, USA", "University of Arizona College of Medicine at South Campus, Tucson, Arizona, USA", "University of Arizona College of Medicine at South Campus, Tucson, Arizona, USA"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I4210088867", "https://openalex.org/I1336196053", 
-"https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "Dayanand Medical College &amp; Hospital", "Roger Williams Medical Center", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/005fgpm31", "https://ror.org/0478ng049", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "IN", "US", "US", "US"), institution_type = c("education", 
-"education", "healthcare", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210088867", "https://openalex.org/I1336196053", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A patient with a history of Mandibular hypoplasia, Deafness, Progeroid Features Associated Lipodystrophy Syndrome (MDPL), familial lipodystrophy presented with hypertriglyceridemia induced pancreatitis with triglycerides in the 3000s. This lipodystrophy occurs due to a mutation in the POLD1 gene (DNA polymerase delta 1). MDPL, hypertriglyceridemia, pancreatitis, POLD1.</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>Clinical Case Reports</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Clinical Case Reports</t>
+          <t>Wiley</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2737168579</t>
+          <t>https://doi.org/10.1002/ccr3.5610</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2050-0904</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35356184</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1002/ccr3.5610</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8943104</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4221107739</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4221107739", doi = "https://doi.org/10.1002/ccr3.5610", pmid = "https://pubmed.ncbi.nlm.nih.gov/35356184")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/ccr3.5610</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W24946788", "https://openalex.org/W1927688745", "https://openalex.org/W1973524806", "https://openalex.org/W1985970357", "https://openalex.org/W1992292595", "https://openalex.org/W2009330135", "https://openalex.org/W2029289043", "https://openalex.org/W2033822121", "https://openalex.org/W2105968031", "https://openalex.org/W2149433053", "https://openalex.org/W2433046934", "https://openalex.org/W2768478526", "https://openalex.org/W3115155158")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4319221754", "https://openalex.org/W2053281761", "https://openalex.org/W4243512366", "https://openalex.org/W2071458888", "https://openalex.org/W4390996705", "https://openalex.org/W2136650819", "https://openalex.org/W2552081928", "https://openalex.org/W2883340610", "https://openalex.org/W2983544062", "https://openalex.org/W2382855591")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Anil Kumar Potharaju_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Anil Kumar Potharaju_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine at South Campus, Tucson, Arizona, USA; &lt;idGroup xmlns="http://www.wiley.com/namespaces/wiley"&gt; &lt;id type="ringgold" value="29761"&gt;&lt;/id&gt; &lt;/idGroup&gt; Dayanand Medical College and Hospital Ludhiana India; Roger Williams Medical Center, Providence, Rhode Island, USA; University of Arizona College of Medicine at South Campus, Tucson, Arizona, USA; University of Arizona College of Medicine at South Campus, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221107739</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The enigma of persistent hypertriglyceridemia: A case report</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Clinical Case Reports</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/ccr3.5610</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35356184</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/ccr3.5610</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
